--- a/examples/simple_mlp/step_by_step_mlp(inertia).xlsx
+++ b/examples/simple_mlp/step_by_step_mlp(inertia).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="61">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t xml:space="preserve">Transposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activated TANH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error = ½ * (target – out)^2. Derivative = - (target – out) = (out-target)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +430,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2662,7 +2676,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2782,12 +2796,12 @@
         <v>1.99720829386578</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
+      <c r="C11" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>16</v>
@@ -2914,13 +2928,13 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
+      <c r="C22" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>16</v>
@@ -3026,12 +3040,12 @@
         <v>3.99646414391778</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>15</v>
+      <c r="C32" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>16</v>
@@ -3098,9 +3112,9 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
+    <row r="42" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <f aca="false">C33-B36</f>
